--- a/Dataset/Authors/TAC_Agr.xlsx
+++ b/Dataset/Authors/TAC_Agr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7497C2CD-1249-4C26-A7F2-D904E03B304C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2A8343-416A-43D2-AE12-F71E326DEE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,13 +127,13 @@
     <t>triennium</t>
   </si>
   <si>
-    <t>triumvir</t>
-  </si>
-  <si>
     <t>Compounds</t>
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>triumviri</t>
   </si>
 </sst>
 </file>
@@ -677,10 +677,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="8">
         <v>1</v>
